--- a/Research Table.xlsx
+++ b/Research Table.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D734E77-FBAA-484E-9403-7EF1F4AEF18E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB61C4-5EE9-4195-982F-BAB49DDEBCB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Aspect of assignment</t>
   </si>
@@ -53,6 +59,36 @@
   </si>
   <si>
     <t>Credibility of Source</t>
+  </si>
+  <si>
+    <t>Kerstin Konrad, Christine Firk,  Peter J Uhlhaas</t>
+  </si>
+  <si>
+    <t>Brain Development During Adolescence: Neuroscientific Insights Into This Developmental Period</t>
+  </si>
+  <si>
+    <t>Review Article</t>
+  </si>
+  <si>
+    <t>NCBI</t>
+  </si>
+  <si>
+    <t>Brain Development</t>
+  </si>
+  <si>
+    <t>Review of Articles</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>Translated from original German- mostly German examples</t>
+  </si>
+  <si>
+    <t>In adolescence, a fundamental reorganization of the brain takes place that continues into the beginning of the third decade of life.Adolescent brain development is characterized by an imbalance between the limbic and reward systems, which mature earlier, and the not yet fully mature prefrontal control system. This imbalance may be the neural substrate for the typical emotional reactive style of adolescence, and it may promote risky behavior. Typical adolescent behavior is the basis for the development of autonomy in adolescents and promotes their emancipation from the primary family. The hormones of puberty affect the further sex-specific restructuring of the adolescent brain. The reorganization of the adolescent brain renders it particularly susceptible to environmental influences, both positive and negative.</t>
   </si>
 </sst>
 </file>
@@ -88,8 +124,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,10 +159,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BF155FD-8A95-477B-A679-638E1A8FD3F7}" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{D0939169-B12C-49B3-8D92-593C044916A7}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E0428C19-31BA-41A3-A5EC-617D2D3234BA}" name="Date viewed"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BF155FD-8A95-477B-A679-638E1A8FD3F7}" name="Table1" displayName="Table1" ref="A1:L6">
+  <autoFilter ref="A1:L6" xr:uid="{D0939169-B12C-49B3-8D92-593C044916A7}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{E0428C19-31BA-41A3-A5EC-617D2D3234BA}" name="Date viewed" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F745DDD0-7253-49F9-95D1-85D959D52264}" name="Author/s"/>
     <tableColumn id="3" xr3:uid="{3161F34D-8B5B-49EC-ACCD-E8FA9C2B2673}" name="Date"/>
     <tableColumn id="4" xr3:uid="{91D986E6-F47E-4E3F-9887-B7F813BA91DE}" name="Title"/>
@@ -121,9 +172,10 @@
     <tableColumn id="8" xr3:uid="{EBCA229D-091F-448E-9AF7-CC49A2A12B52}" name="Sample size"/>
     <tableColumn id="9" xr3:uid="{530024E1-84FD-4571-AE62-A8A5208FA089}" name="Research Approach"/>
     <tableColumn id="10" xr3:uid="{35E304E8-3505-44F3-B194-1D0E31177890}" name="Summary of Findings"/>
-    <tableColumn id="11" xr3:uid="{276555BF-6331-4745-9042-20039F9F1A83}" name="Credibility of Source"/>
+    <tableColumn id="12" xr3:uid="{6D49C748-EF46-4528-A49F-199970049810}" name="Limitations"/>
+    <tableColumn id="11" xr3:uid="{276555BF-6331-4745-9042-20039F9F1A83}" name="Credibility of Source" totalsRowFunction="count"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -390,28 +442,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="81.42578125" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -443,7 +496,48 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43547</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41446</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
